--- a/Excel-XLSX/UN-UKN.xlsx
+++ b/Excel-XLSX/UN-UKN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>6R7Ci5</t>
+    <t>IvTS9x</t>
   </si>
   <si>
     <t>1974</t>
@@ -642,790 +642,790 @@
     <t>2023</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>9732</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>6100</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>11040</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>68610</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>158097</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>209961</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>30575</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>112700</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>4420</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Serbia and Kosovo: S/RES/1244 (1999)</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>15075</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>4708</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>URU</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZIM</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>57020</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>158800</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>165000</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>168000</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>170900</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>167100</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>159700</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>153000</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>154000</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>152000</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>147200</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>142300</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>125800</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>125030</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>262000</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>137140</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>180050</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>139010</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>97520</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>828000</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>724720</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>578750</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>622490</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>749120</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>603300</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>118200</t>
+  </si>
+  <si>
+    <t>142840</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>167490</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>165150</t>
+  </si>
+  <si>
+    <t>33130</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>31050</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>31080</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>101020</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>164500</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>605400</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>459400</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>5620</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>6358</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>5284</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>5992</t>
+  </si>
+  <si>
+    <t>3936</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
     <t>162</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>KAZ</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>9732</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>LAO</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LEB</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>MKD</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>6100</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>MOZ</t>
-  </si>
-  <si>
-    <t>11040</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>68610</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>158097</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>209961</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>30575</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>112700</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>NIC</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>4420</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Serbia and Kosovo: S/RES/1244 (1999)</t>
-  </si>
-  <si>
-    <t>SRB</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>1898</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>15075</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>2450</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>17000</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>URU</t>
-  </si>
-  <si>
-    <t>URY</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>ZIM</t>
-  </si>
-  <si>
-    <t>ZWE</t>
-  </si>
-  <si>
-    <t>57020</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>158800</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>165000</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>168000</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>170900</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>167100</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>159700</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>153000</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>154000</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>152000</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>147200</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>142300</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>125800</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>125030</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>262000</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>137140</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>180050</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>139010</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>97520</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>828000</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>724720</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>578750</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>622490</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>749120</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>603300</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>118200</t>
-  </si>
-  <si>
-    <t>142840</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>167490</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>165150</t>
-  </si>
-  <si>
-    <t>33130</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>31050</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>31080</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>101020</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>164500</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>605400</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>459400</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>5620</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>6358</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>5284</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>5992</t>
-  </si>
-  <si>
-    <t>3936</t>
-  </si>
-  <si>
-    <t>970</t>
   </si>
   <si>
     <t>743601</t>
@@ -1986,8 +1986,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -2054,8 +2054,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -2122,8 +2122,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -2190,8 +2190,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -2258,8 +2258,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -2326,8 +2326,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>35</v>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -2394,8 +2394,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>35</v>
+      <c r="V8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -2462,8 +2462,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -2530,8 +2530,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -2598,8 +2598,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2666,8 +2666,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2734,8 +2734,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2802,8 +2802,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2870,8 +2870,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>35</v>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2938,8 +2938,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>35</v>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -3006,8 +3006,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>35</v>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -3074,8 +3074,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>35</v>
+      <c r="V18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -3142,8 +3142,8 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>35</v>
+      <c r="V19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3210,8 +3210,8 @@
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>35</v>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3278,8 +3278,8 @@
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>35</v>
+      <c r="V21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3346,8 +3346,8 @@
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>35</v>
+      <c r="V22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -3414,8 +3414,8 @@
       <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>35</v>
+      <c r="V23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3482,8 +3482,8 @@
       <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>35</v>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3550,8 +3550,8 @@
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>35</v>
+      <c r="V25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3618,8 +3618,8 @@
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>35</v>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -3686,8 +3686,8 @@
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>35</v>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3754,8 +3754,8 @@
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>35</v>
+      <c r="V28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -3822,8 +3822,8 @@
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>35</v>
+      <c r="V29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -3890,8 +3890,8 @@
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>35</v>
+      <c r="V30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -3958,8 +3958,8 @@
       <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>35</v>
+      <c r="V31" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4026,8 +4026,8 @@
       <c r="U32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>35</v>
+      <c r="V32" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -4094,8 +4094,8 @@
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>35</v>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4162,8 +4162,8 @@
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>35</v>
+      <c r="V34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -4230,8 +4230,8 @@
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>35</v>
+      <c r="V35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -4298,8 +4298,8 @@
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>35</v>
+      <c r="V36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -4366,8 +4366,8 @@
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>35</v>
+      <c r="V37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -4434,8 +4434,8 @@
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>35</v>
+      <c r="V38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -4502,8 +4502,8 @@
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>35</v>
+      <c r="V39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -4570,8 +4570,8 @@
       <c r="U40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>35</v>
+      <c r="V40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -4638,8 +4638,8 @@
       <c r="U41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>35</v>
+      <c r="V41" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -4706,8 +4706,8 @@
       <c r="U42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>35</v>
+      <c r="V42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -4774,8 +4774,8 @@
       <c r="U43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>35</v>
+      <c r="V43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -4842,8 +4842,8 @@
       <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>35</v>
+      <c r="V44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -4910,8 +4910,8 @@
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>35</v>
+      <c r="V45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -4978,8 +4978,8 @@
       <c r="U46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>35</v>
+      <c r="V46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -5046,8 +5046,8 @@
       <c r="U47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>35</v>
+      <c r="V47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -5114,8 +5114,8 @@
       <c r="U48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>35</v>
+      <c r="V48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -5182,8 +5182,8 @@
       <c r="U49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>35</v>
+      <c r="V49" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -5250,8 +5250,8 @@
       <c r="U50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>35</v>
+      <c r="V50" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -5318,8 +5318,8 @@
       <c r="U51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>35</v>
+      <c r="V51" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -5386,8 +5386,8 @@
       <c r="U52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>35</v>
+      <c r="V52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -5454,8 +5454,8 @@
       <c r="U53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>35</v>
+      <c r="V53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -5522,8 +5522,8 @@
       <c r="U54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>35</v>
+      <c r="V54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -5590,8 +5590,8 @@
       <c r="U55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>35</v>
+      <c r="V55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -5658,8 +5658,8 @@
       <c r="U56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>35</v>
+      <c r="V56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -5726,8 +5726,8 @@
       <c r="U57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>35</v>
+      <c r="V57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -5794,8 +5794,8 @@
       <c r="U58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>35</v>
+      <c r="V58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -5862,8 +5862,8 @@
       <c r="U59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>35</v>
+      <c r="V59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -5930,8 +5930,8 @@
       <c r="U60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>35</v>
+      <c r="V60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -5998,8 +5998,8 @@
       <c r="U61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>35</v>
+      <c r="V61" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -6134,8 +6134,8 @@
       <c r="U63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>35</v>
+      <c r="V63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -6202,8 +6202,8 @@
       <c r="U64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>35</v>
+      <c r="V64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -6270,8 +6270,8 @@
       <c r="U65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>35</v>
+      <c r="V65" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -6338,8 +6338,8 @@
       <c r="U66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>35</v>
+      <c r="V66" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -6406,8 +6406,8 @@
       <c r="U67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>35</v>
+      <c r="V67" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -6474,8 +6474,8 @@
       <c r="U68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>35</v>
+      <c r="V68" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -6542,8 +6542,8 @@
       <c r="U69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>35</v>
+      <c r="V69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -6610,8 +6610,8 @@
       <c r="U70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>35</v>
+      <c r="V70" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -6678,8 +6678,8 @@
       <c r="U71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>35</v>
+      <c r="V71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -6746,8 +6746,8 @@
       <c r="U72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>35</v>
+      <c r="V72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -6761,44 +6761,44 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="Q73" s="2" t="s">
         <v>34</v>
       </c>
@@ -6814,8 +6814,8 @@
       <c r="U73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>35</v>
+      <c r="V73" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -6829,44 +6829,44 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="Q74" s="2" t="s">
         <v>34</v>
       </c>
@@ -6882,8 +6882,8 @@
       <c r="U74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>35</v>
+      <c r="V74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -6897,44 +6897,44 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="Q75" s="2" t="s">
         <v>34</v>
       </c>
@@ -6950,8 +6950,8 @@
       <c r="U75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>35</v>
+      <c r="V75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -6965,44 +6965,44 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="Q76" s="2" t="s">
         <v>34</v>
       </c>
@@ -7018,8 +7018,8 @@
       <c r="U76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>35</v>
+      <c r="V76" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -7033,22 +7033,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>29</v>
@@ -7069,7 +7069,7 @@
         <v>34</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>34</v>
@@ -7086,8 +7086,8 @@
       <c r="U77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>35</v>
+      <c r="V77" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -7101,44 +7101,44 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="Q78" s="2" t="s">
         <v>34</v>
       </c>
@@ -7154,8 +7154,8 @@
       <c r="U78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>35</v>
+      <c r="V78" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -7169,44 +7169,44 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P79" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="Q79" s="2" t="s">
         <v>34</v>
       </c>
@@ -7222,8 +7222,8 @@
       <c r="U79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>35</v>
+      <c r="V79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -7237,22 +7237,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I80" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>29</v>
@@ -7273,7 +7273,7 @@
         <v>34</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>34</v>
@@ -7290,8 +7290,8 @@
       <c r="U80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>35</v>
+      <c r="V80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -7305,22 +7305,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I81" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>29</v>
@@ -7341,7 +7341,7 @@
         <v>34</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>34</v>
@@ -7358,8 +7358,8 @@
       <c r="U81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>35</v>
+      <c r="V81" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -7373,22 +7373,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="I82" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>29</v>
@@ -7426,8 +7426,8 @@
       <c r="U82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>35</v>
+      <c r="V82" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -7441,38 +7441,38 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="O83" s="2" t="s">
         <v>34</v>
       </c>
@@ -7494,8 +7494,8 @@
       <c r="U83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>35</v>
+      <c r="V83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -7509,44 +7509,44 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P84" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="Q84" s="2" t="s">
         <v>34</v>
       </c>
@@ -7562,8 +7562,8 @@
       <c r="U84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>35</v>
+      <c r="V84" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -7583,38 +7583,38 @@
         <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="Q85" s="2" t="s">
         <v>34</v>
       </c>
@@ -7630,8 +7630,8 @@
       <c r="U85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>35</v>
+      <c r="V85" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -7645,44 +7645,44 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P86" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="Q86" s="2" t="s">
         <v>34</v>
       </c>
@@ -7698,8 +7698,8 @@
       <c r="U86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>35</v>
+      <c r="V86" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -7713,22 +7713,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>29</v>
@@ -7749,7 +7749,7 @@
         <v>34</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>34</v>
@@ -7766,8 +7766,8 @@
       <c r="U87" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>35</v>
+      <c r="V87" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -7781,22 +7781,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I88" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>29</v>
@@ -7834,8 +7834,8 @@
       <c r="U88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>35</v>
+      <c r="V88" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -7855,16 +7855,16 @@
         <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>29</v>
@@ -7902,8 +7902,8 @@
       <c r="U89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>35</v>
+      <c r="V89" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -7917,22 +7917,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I90" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>29</v>
@@ -7953,7 +7953,7 @@
         <v>34</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>34</v>
@@ -7970,8 +7970,8 @@
       <c r="U90" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>35</v>
+      <c r="V90" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -7985,22 +7985,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I91" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>29</v>
@@ -8038,8 +8038,8 @@
       <c r="U91" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>35</v>
+      <c r="V91" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -8053,22 +8053,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I92" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>29</v>
@@ -8106,8 +8106,8 @@
       <c r="U92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>35</v>
+      <c r="V92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -8127,16 +8127,16 @@
         <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>29</v>
@@ -8174,8 +8174,8 @@
       <c r="U93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>35</v>
+      <c r="V93" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -8189,22 +8189,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I94" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>29</v>
@@ -8225,7 +8225,7 @@
         <v>34</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>34</v>
@@ -8242,8 +8242,8 @@
       <c r="U94" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>35</v>
+      <c r="V94" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -8257,22 +8257,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>29</v>
@@ -8310,8 +8310,8 @@
       <c r="U95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>35</v>
+      <c r="V95" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -8325,44 +8325,44 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P96" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="Q96" s="2" t="s">
         <v>34</v>
       </c>
@@ -8378,8 +8378,8 @@
       <c r="U96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>35</v>
+      <c r="V96" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -8393,22 +8393,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="I97" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>29</v>
@@ -8429,7 +8429,7 @@
         <v>34</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>34</v>
@@ -8446,8 +8446,8 @@
       <c r="U97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>35</v>
+      <c r="V97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -8461,22 +8461,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>29</v>
@@ -8497,7 +8497,7 @@
         <v>34</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>34</v>
@@ -8514,8 +8514,8 @@
       <c r="U98" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>35</v>
+      <c r="V98" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -8535,16 +8535,16 @@
         <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="I99" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>29</v>
@@ -8582,8 +8582,8 @@
       <c r="U99" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>35</v>
+      <c r="V99" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100">
@@ -8597,22 +8597,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="I100" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>29</v>
@@ -8650,8 +8650,8 @@
       <c r="U100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>35</v>
+      <c r="V100" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -8668,35 +8668,35 @@
         <v>226</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="O101" s="2" t="s">
         <v>34</v>
       </c>
@@ -8718,8 +8718,8 @@
       <c r="U101" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>35</v>
+      <c r="V101" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
@@ -8733,22 +8733,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="I102" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>29</v>
@@ -8786,8 +8786,8 @@
       <c r="U102" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>35</v>
+      <c r="V102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -8801,22 +8801,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="I103" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>29</v>
@@ -8854,8 +8854,8 @@
       <c r="U103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>35</v>
+      <c r="V103" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104">
@@ -8869,22 +8869,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="I104" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>29</v>
@@ -8922,8 +8922,8 @@
       <c r="U104" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>35</v>
+      <c r="V104" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105">
@@ -8937,22 +8937,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F105" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="I105" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>29</v>
@@ -8990,8 +8990,8 @@
       <c r="U105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>35</v>
+      <c r="V105" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -9008,19 +9008,19 @@
         <v>216</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>29</v>
@@ -9058,8 +9058,8 @@
       <c r="U106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>35</v>
+      <c r="V106" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -9076,35 +9076,35 @@
         <v>223</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="O107" s="2" t="s">
         <v>34</v>
       </c>
@@ -9126,8 +9126,8 @@
       <c r="U107" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>35</v>
+      <c r="V107" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
@@ -9141,22 +9141,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>29</v>
@@ -9194,8 +9194,8 @@
       <c r="U108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>35</v>
+      <c r="V108" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -9209,23 +9209,23 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="J109" s="2" t="s">
         <v>29</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>32</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>34</v>
@@ -9262,8 +9262,8 @@
       <c r="U109" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>35</v>
+      <c r="V109" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -9283,16 +9283,16 @@
         <v>60</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>29</v>
@@ -9330,8 +9330,8 @@
       <c r="U110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>35</v>
+      <c r="V110" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -9345,22 +9345,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I111" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>29</v>
@@ -9398,8 +9398,8 @@
       <c r="U111" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>35</v>
+      <c r="V111" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
@@ -9413,22 +9413,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>29</v>
@@ -9466,8 +9466,8 @@
       <c r="U112" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>35</v>
+      <c r="V112" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -9481,44 +9481,44 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P113" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="Q113" s="2" t="s">
         <v>34</v>
       </c>
@@ -9534,8 +9534,8 @@
       <c r="U113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>35</v>
+      <c r="V113" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -9549,22 +9549,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I114" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>29</v>
@@ -9602,8 +9602,8 @@
       <c r="U114" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>35</v>
+      <c r="V114" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115">
@@ -9617,22 +9617,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I115" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>29</v>
@@ -9653,7 +9653,7 @@
         <v>34</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>34</v>
@@ -9670,8 +9670,8 @@
       <c r="U115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>35</v>
+      <c r="V115" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -9685,22 +9685,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I116" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>29</v>
@@ -9738,8 +9738,8 @@
       <c r="U116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>35</v>
+      <c r="V116" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -9753,43 +9753,43 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="I117" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P117" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>34</v>
@@ -9821,7 +9821,7 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>207</v>
@@ -9830,13 +9830,13 @@
         <v>41</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>29</v>
@@ -9857,7 +9857,7 @@
         <v>34</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q118" s="2" t="s">
         <v>34</v>
@@ -9889,44 +9889,44 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P119" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="Q119" s="2" t="s">
         <v>34</v>
       </c>
@@ -9942,8 +9942,8 @@
       <c r="U119" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>35</v>
+      <c r="V119" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="120">
@@ -9957,44 +9957,44 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="I120" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P120" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="Q120" s="2" t="s">
         <v>34</v>
       </c>
@@ -10010,8 +10010,8 @@
       <c r="U120" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>35</v>
+      <c r="V120" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121">
@@ -10025,38 +10025,38 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N121" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="O121" s="2" t="s">
         <v>34</v>
       </c>
@@ -10078,8 +10078,8 @@
       <c r="U121" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>35</v>
+      <c r="V121" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -10093,38 +10093,38 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N122" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="O122" s="2" t="s">
         <v>34</v>
       </c>
@@ -10146,8 +10146,8 @@
       <c r="U122" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>35</v>
+      <c r="V122" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="123">
@@ -10161,38 +10161,38 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N123" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="O123" s="2" t="s">
         <v>34</v>
       </c>
@@ -10214,8 +10214,8 @@
       <c r="U123" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>35</v>
+      <c r="V123" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="124">
@@ -10229,11 +10229,11 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>29</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>32</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>34</v>
@@ -10282,8 +10282,8 @@
       <c r="U124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>35</v>
+      <c r="V124" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="125">
@@ -10297,38 +10297,38 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N125" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="O125" s="2" t="s">
         <v>34</v>
       </c>
@@ -10350,8 +10350,8 @@
       <c r="U125" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>35</v>
+      <c r="V125" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="126">
@@ -10365,38 +10365,38 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N126" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="O126" s="2" t="s">
         <v>34</v>
       </c>
@@ -10418,8 +10418,8 @@
       <c r="U126" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>35</v>
+      <c r="V126" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="127">
@@ -10433,38 +10433,38 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N127" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="O127" s="2" t="s">
         <v>34</v>
       </c>
@@ -10486,8 +10486,8 @@
       <c r="U127" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>35</v>
+      <c r="V127" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -10501,38 +10501,38 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N128" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="O128" s="2" t="s">
         <v>34</v>
       </c>
@@ -10554,8 +10554,8 @@
       <c r="U128" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>35</v>
+      <c r="V128" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="129">
@@ -10569,38 +10569,38 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N129" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="O129" s="2" t="s">
         <v>34</v>
       </c>
@@ -10622,8 +10622,8 @@
       <c r="U129" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>35</v>
+      <c r="V129" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="130">
@@ -10637,38 +10637,38 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N130" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="O130" s="2" t="s">
         <v>34</v>
       </c>
@@ -10690,8 +10690,8 @@
       <c r="U130" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>35</v>
+      <c r="V130" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -10705,38 +10705,38 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N131" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="O131" s="2" t="s">
         <v>34</v>
       </c>
@@ -10758,8 +10758,8 @@
       <c r="U131" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>35</v>
+      <c r="V131" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="132">
@@ -10773,38 +10773,38 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N132" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="O132" s="2" t="s">
         <v>34</v>
       </c>
@@ -10826,8 +10826,8 @@
       <c r="U132" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>35</v>
+      <c r="V132" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -10841,38 +10841,38 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N133" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="O133" s="2" t="s">
         <v>34</v>
       </c>
@@ -10894,8 +10894,8 @@
       <c r="U133" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>35</v>
+      <c r="V133" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="134">
@@ -10909,38 +10909,38 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N134" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="O134" s="2" t="s">
         <v>34</v>
       </c>
@@ -10962,8 +10962,8 @@
       <c r="U134" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>35</v>
+      <c r="V134" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="135">
@@ -10977,38 +10977,38 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N135" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="O135" s="2" t="s">
         <v>34</v>
       </c>
@@ -11030,8 +11030,8 @@
       <c r="U135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>35</v>
+      <c r="V135" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="136">
@@ -11045,43 +11045,43 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N136" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="O136" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q136" s="2" t="s">
         <v>34</v>
@@ -11098,8 +11098,8 @@
       <c r="U136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>35</v>
+      <c r="V136" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="137">
@@ -11113,37 +11113,37 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N137" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>34</v>
@@ -11166,8 +11166,8 @@
       <c r="U137" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>35</v>
+      <c r="V137" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138">
@@ -11181,37 +11181,37 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N138" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>34</v>
@@ -11234,8 +11234,8 @@
       <c r="U138" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>35</v>
+      <c r="V138" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="139">
@@ -11249,37 +11249,37 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N139" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>34</v>
@@ -11302,8 +11302,8 @@
       <c r="U139" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>35</v>
+      <c r="V139" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="140">
@@ -11317,43 +11317,43 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="O140" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>34</v>
@@ -11370,8 +11370,8 @@
       <c r="U140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>35</v>
+      <c r="V140" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="141">
@@ -11385,7 +11385,7 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>180</v>
@@ -11415,14 +11415,14 @@
         <v>32</v>
       </c>
       <c r="N141" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P141" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="O141" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P141" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="Q141" s="2" t="s">
         <v>34</v>
       </c>
@@ -11438,8 +11438,8 @@
       <c r="U141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>35</v>
+      <c r="V141" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="142">
@@ -11453,7 +11453,7 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>186</v>
@@ -11483,7 +11483,7 @@
         <v>32</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>34</v>
@@ -11506,8 +11506,8 @@
       <c r="U142" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>35</v>
+      <c r="V142" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="143">
@@ -11521,37 +11521,37 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N143" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>34</v>
@@ -11574,8 +11574,8 @@
       <c r="U143" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>35</v>
+      <c r="V143" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="144">
@@ -11589,7 +11589,7 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>24</v>
@@ -11619,13 +11619,13 @@
         <v>32</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>34</v>
@@ -11642,8 +11642,8 @@
       <c r="U144" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>35</v>
+      <c r="V144" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="145">
@@ -11657,7 +11657,7 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>37</v>
@@ -11687,13 +11687,13 @@
         <v>32</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>34</v>
@@ -11710,8 +11710,8 @@
       <c r="U145" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>35</v>
+      <c r="V145" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="146">
@@ -11725,37 +11725,37 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N146" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>34</v>
@@ -11778,8 +11778,8 @@
       <c r="U146" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>35</v>
+      <c r="V146" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="147">
@@ -11793,43 +11793,43 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N147" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="O147" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>34</v>
@@ -11846,8 +11846,8 @@
       <c r="U147" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>35</v>
+      <c r="V147" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -11861,10 +11861,10 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>29</v>
@@ -11891,13 +11891,13 @@
         <v>32</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>34</v>
@@ -11914,8 +11914,8 @@
       <c r="U148" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>35</v>
+      <c r="V148" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="149">
@@ -11929,43 +11929,43 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N149" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="O149" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>34</v>
@@ -11982,8 +11982,8 @@
       <c r="U149" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>35</v>
+      <c r="V149" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -11997,7 +11997,7 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>156</v>
@@ -12027,13 +12027,13 @@
         <v>32</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>34</v>
@@ -12050,8 +12050,8 @@
       <c r="U150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>35</v>
+      <c r="V150" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="151">
@@ -12095,14 +12095,14 @@
         <v>32</v>
       </c>
       <c r="N151" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P151" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="O151" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P151" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="Q151" s="2" t="s">
         <v>34</v>
       </c>
@@ -12118,8 +12118,8 @@
       <c r="U151" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>35</v>
+      <c r="V151" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="152">
@@ -12133,7 +12133,7 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>163</v>
@@ -12163,7 +12163,7 @@
         <v>32</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>34</v>
@@ -12186,8 +12186,8 @@
       <c r="U152" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>35</v>
+      <c r="V152" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="153">
@@ -12201,7 +12201,7 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>48</v>
@@ -12231,7 +12231,7 @@
         <v>32</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>34</v>
@@ -12254,8 +12254,8 @@
       <c r="U153" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>35</v>
+      <c r="V153" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="154">
@@ -12269,7 +12269,7 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>54</v>
@@ -12299,14 +12299,14 @@
         <v>32</v>
       </c>
       <c r="N154" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P154" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="O154" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P154" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="Q154" s="2" t="s">
         <v>34</v>
       </c>
@@ -12322,8 +12322,8 @@
       <c r="U154" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>35</v>
+      <c r="V154" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="155">
@@ -12337,7 +12337,7 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>114</v>
@@ -12367,7 +12367,7 @@
         <v>32</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>34</v>
@@ -12390,8 +12390,8 @@
       <c r="U155" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>35</v>
+      <c r="V155" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -12405,7 +12405,7 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>133</v>
@@ -12435,14 +12435,14 @@
         <v>32</v>
       </c>
       <c r="N156" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P156" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="O156" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P156" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="Q156" s="2" t="s">
         <v>34</v>
       </c>
@@ -12458,8 +12458,8 @@
       <c r="U156" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>35</v>
+      <c r="V156" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157">
@@ -12473,7 +12473,7 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>121</v>
@@ -12503,7 +12503,7 @@
         <v>32</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>34</v>
@@ -12526,8 +12526,8 @@
       <c r="U157" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>35</v>
+      <c r="V157" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="158">
@@ -12541,7 +12541,7 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>124</v>
@@ -12571,14 +12571,14 @@
         <v>32</v>
       </c>
       <c r="N158" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P158" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="O158" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P158" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="Q158" s="2" t="s">
         <v>34</v>
       </c>
@@ -12594,8 +12594,8 @@
       <c r="U158" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>35</v>
+      <c r="V158" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="159">
@@ -12609,7 +12609,7 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>126</v>
@@ -12639,14 +12639,14 @@
         <v>32</v>
       </c>
       <c r="N159" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P159" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O159" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P159" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="Q159" s="2" t="s">
         <v>34</v>
       </c>
@@ -12662,8 +12662,8 @@
       <c r="U159" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>35</v>
+      <c r="V159" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="160">
@@ -12677,44 +12677,44 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N160" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N160" s="2" t="s">
+      <c r="O160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P160" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="O160" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P160" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="Q160" s="2" t="s">
         <v>34</v>
       </c>
@@ -12730,8 +12730,8 @@
       <c r="U160" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>35</v>
+      <c r="V160" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="161">
@@ -12745,43 +12745,43 @@
         <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E161" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N161" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N161" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="O161" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>34</v>
@@ -12798,8 +12798,8 @@
       <c r="U161" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>35</v>
+      <c r="V161" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="162">
@@ -12813,10 +12813,10 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>29</v>
@@ -12843,14 +12843,14 @@
         <v>32</v>
       </c>
       <c r="N162" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P162" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="O162" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P162" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="Q162" s="2" t="s">
         <v>34</v>
       </c>
@@ -12866,8 +12866,8 @@
       <c r="U162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>35</v>
+      <c r="V162" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="163">
@@ -12881,10 +12881,10 @@
         <v>22</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>208</v>
+        <v>469</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>29</v>
@@ -12934,8 +12934,8 @@
       <c r="U163" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>35</v>
+      <c r="V163" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="164">
@@ -13002,8 +13002,8 @@
       <c r="U164" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>35</v>
+      <c r="V164" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="165">
@@ -13017,7 +13017,7 @@
         <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>40</v>
@@ -13070,8 +13070,8 @@
       <c r="U165" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>35</v>
+      <c r="V165" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="166">
@@ -13138,8 +13138,8 @@
       <c r="U166" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>35</v>
+      <c r="V166" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="167">
@@ -13206,8 +13206,8 @@
       <c r="U167" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>35</v>
+      <c r="V167" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="168">
@@ -13274,8 +13274,8 @@
       <c r="U168" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>35</v>
+      <c r="V168" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="169">
@@ -13342,8 +13342,8 @@
       <c r="U169" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>35</v>
+      <c r="V169" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-UKN.xlsx
+++ b/Excel-XLSX/UN-UKN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>IvTS9x</t>
+    <t>918mXO</t>
   </si>
   <si>
     <t>1951</t>
@@ -1467,10 +1467,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1852,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -13372,16 +13369,16 @@
         <v>482</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>411</v>
+        <v>476</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>411</v>
+        <v>476</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>25</v>
@@ -13420,74 +13417,6 @@
         <v>31</v>
       </c>
       <c r="V170" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N171" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P171" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q171" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R171" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S171" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T171" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U171" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V171" s="2" t="s">
         <v>30</v>
       </c>
     </row>
